--- a/QuantLibXL/Data2/XLS/JPY/JPY_MainChecks.xlsx
+++ b/QuantLibXL/Data2/XLS/JPY/JPY_MainChecks.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sfondi\quantlib\QuantLibXL\Data2\XLS\JPY\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="9600" windowHeight="12000"/>
   </bookViews>
@@ -19,12 +24,12 @@
     <definedName name="TenYearsBondFutures">MainChecks!$C$4:$C$6</definedName>
     <definedName name="Trigger">MainChecks!$U$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
   <si>
     <t>ObjectID</t>
   </si>
@@ -180,9 +185,6 @@
   </si>
   <si>
     <t>PREA</t>
-  </si>
-  <si>
-    <t>JEYM5</t>
   </si>
   <si>
     <t>JGBc1</t>
@@ -204,7 +206,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="9">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
     <numFmt numFmtId="166" formatCode="ddd\,\ dd\-mmm\-yyyy"/>
@@ -213,7 +215,6 @@
     <numFmt numFmtId="169" formatCode="0.0000"/>
     <numFmt numFmtId="170" formatCode="0.000000000"/>
     <numFmt numFmtId="171" formatCode="ddd\,\ dd\-mmm\-yyyy\ hh:mm:ss"/>
-    <numFmt numFmtId="172" formatCode="dd\-mmm\-yy"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -641,9 +642,9 @@
     <xf numFmtId="169" fontId="10" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -664,7 +665,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="8" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="8" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -754,41 +755,11 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
-<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <volType type="realTimeData">
-    <main first="pldatasource.rdatartdserver">
-      <tp t="s">
-        <v>Updated at 17:35:24</v>
-        <stp/>
-        <stp>{1734F4A3-F2C0-4BF0-8B0F-175AB161336E}</stp>
-        <tr r="Q7" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 17:35:56</v>
-        <stp/>
-        <stp>{8180E15A-A890-458B-A1CC-6EF12E308E27}</stp>
-        <tr r="Q5" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 17:35:24</v>
-        <stp/>
-        <stp>{ED06BF14-5964-44AD-98C6-1662F1205CF4}</stp>
-        <tr r="P7" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 17:35:25</v>
-        <stp/>
-        <stp>{F80B2D36-6EC3-461D-93B8-BF4628DBB7E2}</stp>
-        <tr r="Q6" s="2"/>
-      </tp>
-    </main>
-  </volType>
-</volTypes>
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -827,7 +798,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -835,6 +806,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -868,7 +853,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -876,6 +861,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -929,7 +928,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -964,7 +963,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1437,9 +1436,9 @@
       <c r="N5" s="28"/>
       <c r="O5" s="28"/>
       <c r="P5" s="28"/>
-      <c r="Q5" s="29" t="str">
-        <f>_xll.RData(K5,{"EXPIR_DATE","LAST"},,"FRQ:1S",,L5)</f>
-        <v>Updated at 17:35:56</v>
+      <c r="Q5" s="29" t="e">
+        <f ca="1">_xll.RData(K5,{"EXPIR_DATE","LAST"},,"FRQ:1S",,L5)</f>
+        <v>#NAME?</v>
       </c>
       <c r="R5" s="8" t="s">
         <v>13</v>
@@ -1495,8 +1494,9 @@
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="20"/>
-      <c r="K6" s="23" t="s">
-        <v>52</v>
+      <c r="K6" s="23" t="e">
+        <f ca="1">D14</f>
+        <v>#NAME?</v>
       </c>
       <c r="L6" s="24">
         <v>42170</v>
@@ -1507,9 +1507,9 @@
       <c r="N6" s="30"/>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
-      <c r="Q6" s="31" t="str">
-        <f>_xll.RData(K6,{"EXPIR_DATE","LAST"},,"FRQ:1S",,L6)</f>
-        <v>Updated at 17:35:25</v>
+      <c r="Q6" s="31" t="e">
+        <f ca="1">_xll.RData(K6,{"EXPIR_DATE","LAST"},,"FRQ:1S",,L6)</f>
+        <v>#NAME?</v>
       </c>
       <c r="R6" s="8" t="s">
         <v>13</v>
@@ -1582,13 +1582,13 @@
       <c r="O7" s="30">
         <v>0.66249999999999998</v>
       </c>
-      <c r="P7" s="30" t="str">
-        <f>_xll.RData(K7&amp;"="&amp;VLOOKUP(Currency,FuturesTable,7,0),{"BID","ASK"},,"FRQ:1S",,N7)</f>
-        <v>Updated at 17:35:24</v>
-      </c>
-      <c r="Q7" s="31" t="str">
-        <f>_xll.RData(K7&amp;"="&amp;VLOOKUP(Currency,FuturesTable,7,0),"VALUE_DT1",,"FRQ:1S",,L7)</f>
-        <v>Updated at 17:35:24</v>
+      <c r="P7" s="30" t="e">
+        <f ca="1">_xll.RData(K7&amp;"="&amp;VLOOKUP(Currency,FuturesTable,7,0),{"BID","ASK"},,"FRQ:1S",,N7)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q7" s="31" t="e">
+        <f ca="1">_xll.RData(K7&amp;"="&amp;VLOOKUP(Currency,FuturesTable,7,0),"VALUE_DT1",,"FRQ:1S",,L7)</f>
+        <v>#NAME?</v>
       </c>
       <c r="R7" s="8" t="s">
         <v>13</v>
@@ -1620,7 +1620,7 @@
         <v>39</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="48" t="s">
         <v>44</v>
@@ -1745,19 +1745,19 @@
         <v>16</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="48" t="s">
         <v>42</v>
       </c>
       <c r="F10" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="H10" s="49" t="s">
         <v>56</v>
-      </c>
-      <c r="H10" s="49" t="s">
-        <v>57</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="7"/>
@@ -1813,7 +1813,7 @@
         <v>16</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="48" t="s">
         <v>42</v>
@@ -1822,7 +1822,7 @@
         <v>43</v>
       </c>
       <c r="G11" s="48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H11" s="49" t="s">
         <v>37</v>
@@ -5362,12 +5362,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U4">
       <formula1>"EUR,USD,GBP,JPY,CHF,AUD,CNY,CNH,HKD"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6">
-      <formula1>IMMFutures</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5378,7 +5375,7 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId4" name="CommandButton2">
+        <control shapeId="1025" r:id="rId4" name="CommandButton1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -5398,12 +5395,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId4" name="CommandButton2"/>
+        <control shapeId="1025" r:id="rId4" name="CommandButton1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId6" name="CommandButton1">
+        <control shapeId="1026" r:id="rId6" name="CommandButton2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -5423,7 +5420,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId6" name="CommandButton1"/>
+        <control shapeId="1026" r:id="rId6" name="CommandButton2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
